--- a/2.2.xlsx
+++ b/2.2.xlsx
@@ -448,13 +448,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -767,6 +767,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -790,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="60" customHeight="1">
       <c r="A3">
         <v>2.2</v>
       </c>

--- a/2.2.xlsx
+++ b/2.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>point</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>opt2</t>
+  </si>
+  <si>
+    <t>diff_op1</t>
+  </si>
+  <si>
+    <t>diff_opt2</t>
   </si>
 </sst>
 </file>
@@ -131,14 +137,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SheetName!$A2:$A$3</c:f>
+              <c:f>SheetName!$A2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -146,15 +155,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SheetName!$B2:$B$3</c:f>
+              <c:f>SheetName!$B2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -186,14 +198,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SheetName!$A$2:$A$3</c:f>
+              <c:f>SheetName!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -201,15 +216,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SheetName!$C$2:$C$3</c:f>
+              <c:f>SheetName!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,14 +257,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SheetName!$A2:$A$3</c:f>
+              <c:f>SheetName!$A2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -254,15 +275,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SheetName!$B2:$B$3</c:f>
+              <c:f>SheetName!$B2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,14 +310,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SheetName!$A$2:$A$3</c:f>
+              <c:f>SheetName!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -301,15 +328,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SheetName!$C$2:$C$3</c:f>
+              <c:f>SheetName!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,6 +460,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -448,13 +486,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -762,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,7 +809,7 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,8 +819,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2.2</v>
       </c>
@@ -792,8 +836,14 @@
       <c r="C2">
         <v>26</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1">
+    <row r="3" spans="1:5" ht="60" customHeight="1">
       <c r="A3">
         <v>2.2</v>
       </c>
@@ -802,6 +852,29 @@
       </c>
       <c r="C3">
         <v>24</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2.2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/2.2.xlsx
+++ b/2.2.xlsx
@@ -11,6 +11,42 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>opt1和上一个opt1值之间的变化(opt1-previous_opt1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>opt2和上一个opt2值之间的变化(opt2-previous_opt2)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,13 +71,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -72,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,19 +853,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -880,5 +923,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>